--- a/data/pca/factorExposure/factorExposure_2017-10-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02373361651441656</v>
+        <v>-0.01046525041600879</v>
       </c>
       <c r="C2">
-        <v>-0.002911216991306787</v>
+        <v>-0.04033361527320552</v>
       </c>
       <c r="D2">
-        <v>0.01507279887123636</v>
+        <v>-0.02919136354876233</v>
       </c>
       <c r="E2">
-        <v>-0.01368400035009464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0253418747578369</v>
+      </c>
+      <c r="F2">
+        <v>-0.02525885923542805</v>
+      </c>
+      <c r="G2">
+        <v>-0.02727642460604421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01234426549107524</v>
+        <v>-0.04882105262427879</v>
       </c>
       <c r="C3">
-        <v>-0.04703160849822443</v>
+        <v>-0.07873036408399539</v>
       </c>
       <c r="D3">
-        <v>0.01658736994910757</v>
+        <v>-0.01495986001819065</v>
       </c>
       <c r="E3">
-        <v>-0.01063311783453236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08558104574287639</v>
+      </c>
+      <c r="F3">
+        <v>-0.07007306250662874</v>
+      </c>
+      <c r="G3">
+        <v>-0.07134706181527251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02186457608490621</v>
+        <v>-0.05715247617077982</v>
       </c>
       <c r="C4">
-        <v>-0.01654203131630437</v>
+        <v>-0.06217941564091352</v>
       </c>
       <c r="D4">
-        <v>0.06435027049836393</v>
+        <v>-0.0225929188368189</v>
       </c>
       <c r="E4">
-        <v>0.01163628532578591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.009904002897313533</v>
+      </c>
+      <c r="F4">
+        <v>-0.006838983898074019</v>
+      </c>
+      <c r="G4">
+        <v>-0.04937023772688232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01508944011848822</v>
+        <v>-0.0321923595971788</v>
       </c>
       <c r="C6">
-        <v>-0.02115545750418697</v>
+        <v>-0.05312450544493673</v>
       </c>
       <c r="D6">
-        <v>0.08448698976518913</v>
+        <v>-0.01610238389556203</v>
       </c>
       <c r="E6">
-        <v>-0.002561193854129381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01000764491820098</v>
+      </c>
+      <c r="F6">
+        <v>-0.008575670544809051</v>
+      </c>
+      <c r="G6">
+        <v>-0.02954677954001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01025701762723924</v>
+        <v>-0.01853377830848945</v>
       </c>
       <c r="C7">
-        <v>-0.003829329335320303</v>
+        <v>-0.03742908673340945</v>
       </c>
       <c r="D7">
-        <v>0.04070890966580531</v>
+        <v>-0.0130591722013251</v>
       </c>
       <c r="E7">
-        <v>0.06768299823971154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01244829262773949</v>
+      </c>
+      <c r="F7">
+        <v>-0.003625779977322053</v>
+      </c>
+      <c r="G7">
+        <v>-0.0810416478048931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-8.126810659213865e-05</v>
+        <v>0.002594338425417008</v>
       </c>
       <c r="C8">
-        <v>0.009180284860681188</v>
+        <v>-0.01890769680043658</v>
       </c>
       <c r="D8">
-        <v>0.01430869020026871</v>
+        <v>-0.00399607157269509</v>
       </c>
       <c r="E8">
-        <v>0.005642099461390048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02174704159663815</v>
+      </c>
+      <c r="F8">
+        <v>-0.02275098497697959</v>
+      </c>
+      <c r="G8">
+        <v>-0.02385780458679866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01448771096139918</v>
+        <v>-0.02897779983214396</v>
       </c>
       <c r="C9">
-        <v>-0.01677360361535575</v>
+        <v>-0.04314063269510722</v>
       </c>
       <c r="D9">
-        <v>0.04611063836642731</v>
+        <v>-0.01599899378482226</v>
       </c>
       <c r="E9">
-        <v>0.002047039006545569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01052741711610013</v>
+      </c>
+      <c r="F9">
+        <v>-0.01480246327655126</v>
+      </c>
+      <c r="G9">
+        <v>-0.04052579325953608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01007069379660286</v>
+        <v>-0.09382313140218293</v>
       </c>
       <c r="C10">
-        <v>-0.1522394148959591</v>
+        <v>0.1831138325304749</v>
       </c>
       <c r="D10">
-        <v>-0.1299412916375748</v>
+        <v>0.01840157763089043</v>
       </c>
       <c r="E10">
-        <v>0.02182125828215806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01541564648547442</v>
+      </c>
+      <c r="F10">
+        <v>0.01257004794153527</v>
+      </c>
+      <c r="G10">
+        <v>-0.04056656063288164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0002358801431110492</v>
+        <v>-0.03330704092431989</v>
       </c>
       <c r="C11">
-        <v>-0.006015604474373173</v>
+        <v>-0.05391571436570376</v>
       </c>
       <c r="D11">
-        <v>0.04479218654285954</v>
+        <v>-0.001895364299786562</v>
       </c>
       <c r="E11">
-        <v>-0.01321257716656339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.001194178175870688</v>
+      </c>
+      <c r="F11">
+        <v>-0.01877354321448092</v>
+      </c>
+      <c r="G11">
+        <v>-0.02218767502501864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005436535773266967</v>
+        <v>-0.03165909531058294</v>
       </c>
       <c r="C12">
-        <v>-0.01377749968568635</v>
+        <v>-0.04534636995867573</v>
       </c>
       <c r="D12">
-        <v>0.04760663203370272</v>
+        <v>-0.005900842037147529</v>
       </c>
       <c r="E12">
-        <v>-0.004152809496105797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.004659601076979854</v>
+      </c>
+      <c r="F12">
+        <v>-0.004087799762074794</v>
+      </c>
+      <c r="G12">
+        <v>-0.02676488169766763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02127411099518581</v>
+        <v>-0.01371758982972624</v>
       </c>
       <c r="C13">
-        <v>-0.0153004184523276</v>
+        <v>-0.03272025410774165</v>
       </c>
       <c r="D13">
-        <v>0.011052396168153</v>
+        <v>-0.02483774682133813</v>
       </c>
       <c r="E13">
-        <v>-0.008193788312262704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01921663916876011</v>
+      </c>
+      <c r="F13">
+        <v>-0.01568735739480574</v>
+      </c>
+      <c r="G13">
+        <v>-0.03422362864787133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007018081982735082</v>
+        <v>-0.008821604895132345</v>
       </c>
       <c r="C14">
-        <v>-0.01169135773131272</v>
+        <v>-0.02716629340583213</v>
       </c>
       <c r="D14">
-        <v>0.01804637239301756</v>
+        <v>-0.008685429050316875</v>
       </c>
       <c r="E14">
-        <v>0.009363773587281368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.006676776776428261</v>
+      </c>
+      <c r="F14">
+        <v>0.0009709670919691235</v>
+      </c>
+      <c r="G14">
+        <v>-0.04075453112802849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0006319955389181246</v>
+        <v>-0.03122803893286326</v>
       </c>
       <c r="C16">
-        <v>-0.01060640339560453</v>
+        <v>-0.04368541447679863</v>
       </c>
       <c r="D16">
-        <v>0.05131114714953304</v>
+        <v>-0.001432987600267588</v>
       </c>
       <c r="E16">
-        <v>-0.007537069922343535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.00413349848149378</v>
+      </c>
+      <c r="F16">
+        <v>-0.008701611588742018</v>
+      </c>
+      <c r="G16">
+        <v>-0.02485415184643812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01302943830418109</v>
+        <v>-0.02568042887430418</v>
       </c>
       <c r="C19">
-        <v>-0.0274287893542386</v>
+        <v>-0.05068079870935134</v>
       </c>
       <c r="D19">
-        <v>0.02872390020640656</v>
+        <v>-0.01612926025600976</v>
       </c>
       <c r="E19">
-        <v>0.002929397863674845</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.04956852514889153</v>
+      </c>
+      <c r="F19">
+        <v>-0.03071908500262138</v>
+      </c>
+      <c r="G19">
+        <v>-0.04961129783321244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01026722981454158</v>
+        <v>-0.01210679782025446</v>
       </c>
       <c r="C20">
-        <v>-0.005670294588683368</v>
+        <v>-0.03486144321855664</v>
       </c>
       <c r="D20">
-        <v>0.01361324030208244</v>
+        <v>-0.01315567292128029</v>
       </c>
       <c r="E20">
-        <v>-0.001826507386571708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02160541893736559</v>
+      </c>
+      <c r="F20">
+        <v>0.0007276886352833945</v>
+      </c>
+      <c r="G20">
+        <v>-0.03912129493278426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01398596871288629</v>
+        <v>-0.0159131879578165</v>
       </c>
       <c r="C21">
-        <v>-0.03748563176096495</v>
+        <v>-0.03540903320935183</v>
       </c>
       <c r="D21">
-        <v>0.02091649168057018</v>
+        <v>-0.0161627089688378</v>
       </c>
       <c r="E21">
-        <v>0.01713055812999428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02920710632231484</v>
+      </c>
+      <c r="F21">
+        <v>-0.01122082144722848</v>
+      </c>
+      <c r="G21">
+        <v>-0.06087342688424191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004915864228491592</v>
+        <v>-0.02559398259913628</v>
       </c>
       <c r="C24">
-        <v>-0.006858729730768247</v>
+        <v>-0.04664501997932271</v>
       </c>
       <c r="D24">
-        <v>0.0460632679455785</v>
+        <v>-0.006861836698340967</v>
       </c>
       <c r="E24">
-        <v>-0.007919612470886279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.0005293511912909437</v>
+      </c>
+      <c r="F24">
+        <v>-0.01583849546531912</v>
+      </c>
+      <c r="G24">
+        <v>-0.02678422099212471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01109824192109437</v>
+        <v>-0.0420484661819982</v>
       </c>
       <c r="C25">
-        <v>-0.02267927951338242</v>
+        <v>-0.05399288412444945</v>
       </c>
       <c r="D25">
-        <v>0.0444724723732579</v>
+        <v>-0.01073491692421336</v>
       </c>
       <c r="E25">
-        <v>-0.006910188137022275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.007493546704908541</v>
+      </c>
+      <c r="F25">
+        <v>-0.009388159618498607</v>
+      </c>
+      <c r="G25">
+        <v>-0.03234659582792773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02256448589882928</v>
+        <v>-0.01073864535774537</v>
       </c>
       <c r="C26">
-        <v>-0.007873227421947158</v>
+        <v>-0.009327535763305477</v>
       </c>
       <c r="D26">
-        <v>-0.004051149277262901</v>
+        <v>-0.02378485962700842</v>
       </c>
       <c r="E26">
-        <v>0.008217956986587796</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.006315078193048147</v>
+      </c>
+      <c r="F26">
+        <v>-0.002612437887000013</v>
+      </c>
+      <c r="G26">
+        <v>-0.03213770491623535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02809367630257422</v>
+        <v>-0.1191844636300227</v>
       </c>
       <c r="C28">
-        <v>-0.2250890688249759</v>
+        <v>0.2232375838550275</v>
       </c>
       <c r="D28">
-        <v>-0.1810172889450586</v>
+        <v>0.009278803960195604</v>
       </c>
       <c r="E28">
-        <v>0.03302962407319776</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.002482377363881311</v>
+      </c>
+      <c r="F28">
+        <v>0.0108009581262612</v>
+      </c>
+      <c r="G28">
+        <v>-0.05976759516652567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007313397554841954</v>
+        <v>-0.01359143676069005</v>
       </c>
       <c r="C29">
-        <v>-0.01718013072935229</v>
+        <v>-0.0216146863531239</v>
       </c>
       <c r="D29">
-        <v>0.01527567918462113</v>
+        <v>-0.007430053627950285</v>
       </c>
       <c r="E29">
-        <v>0.004926198162253902</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.008172736685828021</v>
+      </c>
+      <c r="F29">
+        <v>0.01019688584572727</v>
+      </c>
+      <c r="G29">
+        <v>-0.03080588936159248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02300351816327527</v>
+        <v>-0.04448793348689031</v>
       </c>
       <c r="C30">
-        <v>-0.00111771309034601</v>
+        <v>-0.06880715917051838</v>
       </c>
       <c r="D30">
-        <v>0.06351803942698778</v>
+        <v>-0.02732207965002835</v>
       </c>
       <c r="E30">
-        <v>-0.06259866328948892</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03193643124879114</v>
+      </c>
+      <c r="F30">
+        <v>-0.04739659395507537</v>
+      </c>
+      <c r="G30">
+        <v>-0.008363152570953932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007064759788548159</v>
+        <v>-0.04519052579571657</v>
       </c>
       <c r="C31">
-        <v>-0.0469424254455206</v>
+        <v>-0.03221005629882702</v>
       </c>
       <c r="D31">
-        <v>0.04150339091845016</v>
+        <v>-0.003226167959134834</v>
       </c>
       <c r="E31">
-        <v>0.002538775088361962</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.00699733192555269</v>
+      </c>
+      <c r="F31">
+        <v>0.03773426014917305</v>
+      </c>
+      <c r="G31">
+        <v>-0.02733716616203836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007128461517919704</v>
+        <v>-0.002250011699966511</v>
       </c>
       <c r="C32">
-        <v>-0.01426799894755753</v>
+        <v>-0.03596132741875607</v>
       </c>
       <c r="D32">
-        <v>0.006118904553791688</v>
+        <v>0.00406006413883031</v>
       </c>
       <c r="E32">
-        <v>0.02767742344320391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.007323052870892434</v>
+      </c>
+      <c r="F32">
+        <v>-0.05449799871195721</v>
+      </c>
+      <c r="G32">
+        <v>-0.05734415567406745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01216028492854918</v>
+        <v>-0.02568027080117753</v>
       </c>
       <c r="C33">
-        <v>-0.02443683201221519</v>
+        <v>-0.04958850294425451</v>
       </c>
       <c r="D33">
-        <v>0.02167361822573262</v>
+        <v>-0.01456891052682487</v>
       </c>
       <c r="E33">
-        <v>-0.02534595781178777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01990654750297012</v>
+      </c>
+      <c r="F33">
+        <v>-0.02653348557737199</v>
+      </c>
+      <c r="G33">
+        <v>-0.03561082678702189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004910016060768737</v>
+        <v>-0.04346730605533615</v>
       </c>
       <c r="C34">
-        <v>-0.01950797879845322</v>
+        <v>-0.05470058110298828</v>
       </c>
       <c r="D34">
-        <v>0.05077864090027689</v>
+        <v>0.005289038854764577</v>
       </c>
       <c r="E34">
-        <v>0.0004611225124154758</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01052544872024891</v>
+      </c>
+      <c r="F34">
+        <v>-0.01893067231833129</v>
+      </c>
+      <c r="G34">
+        <v>-0.03810252388582681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01175843675207837</v>
+        <v>-0.0111346502675696</v>
       </c>
       <c r="C36">
-        <v>-0.01765393181682348</v>
+        <v>-0.007575178851987345</v>
       </c>
       <c r="D36">
-        <v>0.002055603043966803</v>
+        <v>-0.01148972458674693</v>
       </c>
       <c r="E36">
-        <v>0.002051299636848475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001690650849155368</v>
+      </c>
+      <c r="F36">
+        <v>0.002633346254352526</v>
+      </c>
+      <c r="G36">
+        <v>-0.02522125226433403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006364482946499024</v>
+        <v>-0.03148024535062514</v>
       </c>
       <c r="C38">
-        <v>-0.02595870386768791</v>
+        <v>-0.02618512991586562</v>
       </c>
       <c r="D38">
-        <v>0.02227468026182663</v>
+        <v>0.007760065026786688</v>
       </c>
       <c r="E38">
-        <v>0.001259049469190477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004628877122897438</v>
+      </c>
+      <c r="F38">
+        <v>0.005752008068126971</v>
+      </c>
+      <c r="G38">
+        <v>-0.03363924846390082</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005894957110657203</v>
+        <v>-0.03118823083333035</v>
       </c>
       <c r="C39">
-        <v>0.01835292212760047</v>
+        <v>-0.08098119461646672</v>
       </c>
       <c r="D39">
-        <v>0.09503143680447423</v>
+        <v>-0.01216823298439184</v>
       </c>
       <c r="E39">
-        <v>-0.0172728992466376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02025002648181683</v>
+      </c>
+      <c r="F39">
+        <v>-0.03899408070917285</v>
+      </c>
+      <c r="G39">
+        <v>-0.02854699834001118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01038344260669114</v>
+        <v>-0.02084465593631954</v>
       </c>
       <c r="C40">
-        <v>-0.01586344424699212</v>
+        <v>-0.03150561423988886</v>
       </c>
       <c r="D40">
-        <v>0.03838278141824552</v>
+        <v>-0.01299504156303761</v>
       </c>
       <c r="E40">
-        <v>-0.01054400022493338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01796281013611695</v>
+      </c>
+      <c r="F40">
+        <v>-0.01920897466468085</v>
+      </c>
+      <c r="G40">
+        <v>-0.02582005536682934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005107334662444393</v>
+        <v>-0.01284416466515786</v>
       </c>
       <c r="C41">
-        <v>-0.02045871063371182</v>
+        <v>0.001199669825187912</v>
       </c>
       <c r="D41">
-        <v>-0.007496036178341074</v>
+        <v>-0.003501663469293174</v>
       </c>
       <c r="E41">
-        <v>0.00342377091230252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001780843808416607</v>
+      </c>
+      <c r="F41">
+        <v>0.002309149187717084</v>
+      </c>
+      <c r="G41">
+        <v>-0.01734234783150405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09395986294596434</v>
+        <v>-0.01848233198479217</v>
       </c>
       <c r="C42">
-        <v>-0.02539441309592042</v>
+        <v>-0.04513055128282302</v>
       </c>
       <c r="D42">
-        <v>0.2256477696490861</v>
+        <v>-0.09605499393709375</v>
       </c>
       <c r="E42">
-        <v>-0.2942221450634809</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.04214842639103331</v>
+      </c>
+      <c r="F42">
+        <v>0.04359428166552712</v>
+      </c>
+      <c r="G42">
+        <v>0.1708346430523325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0059948522519157</v>
+        <v>-0.02831381513368515</v>
       </c>
       <c r="C43">
-        <v>-0.01978316913336727</v>
+        <v>-0.008742316240788873</v>
       </c>
       <c r="D43">
-        <v>-0.01260874086664618</v>
+        <v>-0.003893902599981847</v>
       </c>
       <c r="E43">
-        <v>-0.0004224357644343955</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.004467163591908313</v>
+      </c>
+      <c r="F43">
+        <v>0.003727857843931565</v>
+      </c>
+      <c r="G43">
+        <v>-0.02322605284692436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002853363604516621</v>
+        <v>-0.01702486262704642</v>
       </c>
       <c r="C44">
-        <v>0.002004082786738131</v>
+        <v>-0.0486947458784029</v>
       </c>
       <c r="D44">
-        <v>0.02988651042333614</v>
+        <v>-0.006215973431975917</v>
       </c>
       <c r="E44">
-        <v>0.0006653496510911235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01598386719012096</v>
+      </c>
+      <c r="F44">
+        <v>-0.00989476327931684</v>
+      </c>
+      <c r="G44">
+        <v>-0.03907992081340052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01069834106626366</v>
+        <v>-0.006477504905143778</v>
       </c>
       <c r="C46">
-        <v>-0.01642405825025862</v>
+        <v>-0.01740352776214178</v>
       </c>
       <c r="D46">
-        <v>0.01858915648737989</v>
+        <v>-0.01179423635575943</v>
       </c>
       <c r="E46">
-        <v>-0.003948005069256919</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001096551802089812</v>
+      </c>
+      <c r="F46">
+        <v>0.01359555540758131</v>
+      </c>
+      <c r="G46">
+        <v>-0.02741476091021794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001044402306237018</v>
+        <v>-0.07367658041732539</v>
       </c>
       <c r="C47">
-        <v>-0.06085768520292975</v>
+        <v>-0.0661613859757845</v>
       </c>
       <c r="D47">
-        <v>0.04985804340922292</v>
+        <v>0.005125368140121418</v>
       </c>
       <c r="E47">
-        <v>-0.007142726623868241</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009636844891398207</v>
+      </c>
+      <c r="F47">
+        <v>0.0584326756205797</v>
+      </c>
+      <c r="G47">
+        <v>-0.02470343946518322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002589473985422849</v>
+        <v>-0.02188672138571437</v>
       </c>
       <c r="C48">
-        <v>-0.02768006926582546</v>
+        <v>-0.009484341678307742</v>
       </c>
       <c r="D48">
-        <v>0.01191345460986543</v>
+        <v>-0.000746823381264747</v>
       </c>
       <c r="E48">
-        <v>-0.0005298417417874765</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.001938700903181399</v>
+      </c>
+      <c r="F48">
+        <v>0.01375412817424739</v>
+      </c>
+      <c r="G48">
+        <v>-0.03038183046283879</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002252100264860932</v>
+        <v>-0.07856456009343993</v>
       </c>
       <c r="C50">
-        <v>-0.04967800797850342</v>
+        <v>-0.06781907726287791</v>
       </c>
       <c r="D50">
-        <v>0.0638281803533184</v>
+        <v>0.003608923594327038</v>
       </c>
       <c r="E50">
-        <v>0.0176158141272769</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01047934645212753</v>
+      </c>
+      <c r="F50">
+        <v>0.05710189926572887</v>
+      </c>
+      <c r="G50">
+        <v>-0.04789121746269848</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006992993901994393</v>
+        <v>-0.0114313670390799</v>
       </c>
       <c r="C51">
-        <v>-0.02037460953146603</v>
+        <v>-0.02714699880303544</v>
       </c>
       <c r="D51">
-        <v>-0.01262503288869644</v>
+        <v>-0.009044633984393743</v>
       </c>
       <c r="E51">
-        <v>0.009916949499934675</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.007016439720184786</v>
+      </c>
+      <c r="F51">
+        <v>-0.02582865093956899</v>
+      </c>
+      <c r="G51">
+        <v>-0.05441063903910073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003785389463848852</v>
+        <v>-0.09124256469593577</v>
       </c>
       <c r="C53">
-        <v>-0.07834134400978281</v>
+        <v>-0.08246501943067924</v>
       </c>
       <c r="D53">
-        <v>0.1064148541853066</v>
+        <v>0.005075771726361008</v>
       </c>
       <c r="E53">
-        <v>-0.005673750888368143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0391547691011017</v>
+      </c>
+      <c r="F53">
+        <v>0.06623291681285566</v>
+      </c>
+      <c r="G53">
+        <v>-0.02563505553985868</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0012154419398071</v>
+        <v>-0.02914924178750746</v>
       </c>
       <c r="C54">
-        <v>-0.03490046127460536</v>
+        <v>-0.009041400663853345</v>
       </c>
       <c r="D54">
-        <v>-0.01061171248092276</v>
+        <v>0.003026351728609514</v>
       </c>
       <c r="E54">
-        <v>0.01221907882950351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.002818619716232926</v>
+      </c>
+      <c r="F54">
+        <v>0.001043543957008796</v>
+      </c>
+      <c r="G54">
+        <v>-0.03603858162297306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001259021735322249</v>
+        <v>-0.07154136302401322</v>
       </c>
       <c r="C55">
-        <v>-0.05637168405735234</v>
+        <v>-0.07490402940058008</v>
       </c>
       <c r="D55">
-        <v>0.08998665179134283</v>
+        <v>0.004540778901161562</v>
       </c>
       <c r="E55">
-        <v>-0.01590995975856593</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02620721125679196</v>
+      </c>
+      <c r="F55">
+        <v>0.06002572448178925</v>
+      </c>
+      <c r="G55">
+        <v>-0.01055570816766264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0003905734310438356</v>
+        <v>-0.1411799891298068</v>
       </c>
       <c r="C56">
-        <v>-0.09911032783284164</v>
+        <v>-0.1063948408130065</v>
       </c>
       <c r="D56">
-        <v>0.1347902568436161</v>
+        <v>0.01348337456451047</v>
       </c>
       <c r="E56">
-        <v>-0.01762420382174137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03664939861000362</v>
+      </c>
+      <c r="F56">
+        <v>0.09828968544967687</v>
+      </c>
+      <c r="G56">
+        <v>0.001411042580554299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02268623041615776</v>
+        <v>-0.01085216073730982</v>
       </c>
       <c r="C57">
-        <v>-0.01825206320878326</v>
+        <v>-0.01064613128829586</v>
       </c>
       <c r="D57">
-        <v>0.03827843470491484</v>
+        <v>-0.02353422169033058</v>
       </c>
       <c r="E57">
-        <v>-0.01240057892731276</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02627529524495964</v>
+      </c>
+      <c r="F57">
+        <v>-0.01770851561187201</v>
+      </c>
+      <c r="G57">
+        <v>-0.02024476857164416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.009459813415594178</v>
+        <v>-0.08223659221859636</v>
       </c>
       <c r="C58">
-        <v>-0.08974908607576849</v>
+        <v>-0.05679422867063507</v>
       </c>
       <c r="D58">
-        <v>0.09972142844911126</v>
+        <v>-0.01608205309416722</v>
       </c>
       <c r="E58">
-        <v>-0.2157294238598866</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9590139050813359</v>
+      </c>
+      <c r="F58">
+        <v>0.1593299104011482</v>
+      </c>
+      <c r="G58">
+        <v>-0.008365443093653726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02424325261974886</v>
+        <v>-0.1566905678744264</v>
       </c>
       <c r="C59">
-        <v>-0.2324909040465753</v>
+        <v>0.2080927414898138</v>
       </c>
       <c r="D59">
-        <v>-0.1806336606828536</v>
+        <v>0.01591342110384749</v>
       </c>
       <c r="E59">
-        <v>0.008154392178455131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01366300150059561</v>
+      </c>
+      <c r="F59">
+        <v>-0.009883757106040952</v>
+      </c>
+      <c r="G59">
+        <v>-0.02186474541443323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02997786760366889</v>
+        <v>-0.2868298582631251</v>
       </c>
       <c r="C60">
-        <v>-0.1580052358486146</v>
+        <v>-0.09701505325864662</v>
       </c>
       <c r="D60">
-        <v>0.08226184557687934</v>
+        <v>-0.009614055882698732</v>
       </c>
       <c r="E60">
-        <v>-0.05272489133519941</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02680352085038096</v>
+      </c>
+      <c r="F60">
+        <v>-0.3738664755111096</v>
+      </c>
+      <c r="G60">
+        <v>0.08253769094664111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002763502776146497</v>
+        <v>-0.03212191219581537</v>
       </c>
       <c r="C61">
-        <v>-0.007338823628542302</v>
+        <v>-0.06490457493190044</v>
       </c>
       <c r="D61">
-        <v>0.06743519789646608</v>
+        <v>-0.005429991160137142</v>
       </c>
       <c r="E61">
-        <v>-0.010465152121865</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.008258269655857806</v>
+      </c>
+      <c r="F61">
+        <v>-0.02087921002802075</v>
+      </c>
+      <c r="G61">
+        <v>-0.02668638370657552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007219846610388835</v>
+        <v>-0.01127424970973368</v>
       </c>
       <c r="C63">
-        <v>-0.007434003001904894</v>
+        <v>-0.02884014240508845</v>
       </c>
       <c r="D63">
-        <v>0.008939884965892266</v>
+        <v>-0.00820658815785889</v>
       </c>
       <c r="E63">
-        <v>0.007307004224072047</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.00712605023492601</v>
+      </c>
+      <c r="F63">
+        <v>0.01824453020843115</v>
+      </c>
+      <c r="G63">
+        <v>-0.03631265910395529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006727610249386096</v>
+        <v>-0.04928719586804595</v>
       </c>
       <c r="C64">
-        <v>-0.03101643480949769</v>
+        <v>-0.03936768345736782</v>
       </c>
       <c r="D64">
-        <v>0.06641759310986049</v>
+        <v>-0.005106224631730196</v>
       </c>
       <c r="E64">
-        <v>-0.01335615056942784</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.007011192522329477</v>
+      </c>
+      <c r="F64">
+        <v>-0.003663436941469553</v>
+      </c>
+      <c r="G64">
+        <v>-0.0242012412763449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01751398219939361</v>
+        <v>-0.08273254006150844</v>
       </c>
       <c r="C65">
-        <v>-0.0268597534789127</v>
+        <v>-0.06535916685129403</v>
       </c>
       <c r="D65">
-        <v>0.09529398439409455</v>
+        <v>-0.01511412917222753</v>
       </c>
       <c r="E65">
-        <v>-0.005890958449377035</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01046432375840035</v>
+      </c>
+      <c r="F65">
+        <v>-0.02841965907881455</v>
+      </c>
+      <c r="G65">
+        <v>-0.01326392993329126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0052899775799171</v>
+        <v>-0.05201710614507439</v>
       </c>
       <c r="C66">
-        <v>0.007974734288208277</v>
+        <v>-0.114667746703897</v>
       </c>
       <c r="D66">
-        <v>0.1177581695784419</v>
+        <v>-0.01162347106924944</v>
       </c>
       <c r="E66">
-        <v>-0.0335983621717138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02102667832389182</v>
+      </c>
+      <c r="F66">
+        <v>-0.04624683086940555</v>
+      </c>
+      <c r="G66">
+        <v>-0.02047242888278768</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001421745961912783</v>
+        <v>-0.05438483915264171</v>
       </c>
       <c r="C67">
-        <v>-0.04362307944637863</v>
+        <v>-0.03138894020032226</v>
       </c>
       <c r="D67">
-        <v>0.02690006531746677</v>
+        <v>0.006067513984149188</v>
       </c>
       <c r="E67">
-        <v>-0.0008792811976722752</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003213064668343007</v>
+      </c>
+      <c r="F67">
+        <v>0.007319604714702359</v>
+      </c>
+      <c r="G67">
+        <v>-0.03128470266559532</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04171645813857643</v>
+        <v>-0.1403346804146592</v>
       </c>
       <c r="C68">
-        <v>-0.2026832586928485</v>
+        <v>0.2660680946580963</v>
       </c>
       <c r="D68">
-        <v>-0.1749135603585998</v>
+        <v>-0.001914737304094352</v>
       </c>
       <c r="E68">
-        <v>0.005273645781117959</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01368426386968969</v>
+      </c>
+      <c r="F68">
+        <v>0.036083615726128</v>
+      </c>
+      <c r="G68">
+        <v>-0.02215933908661809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003295155428726232</v>
+        <v>-0.07718595772918209</v>
       </c>
       <c r="C69">
-        <v>-0.04511418580986926</v>
+        <v>-0.06685779221299529</v>
       </c>
       <c r="D69">
-        <v>0.05819872939989536</v>
+        <v>0.008987535134730093</v>
       </c>
       <c r="E69">
-        <v>-0.003483636538863127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0294588573522711</v>
+      </c>
+      <c r="F69">
+        <v>0.0444906230895854</v>
+      </c>
+      <c r="G69">
+        <v>-0.02586833601587573</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02938493858851286</v>
+        <v>-0.1376413311851571</v>
       </c>
       <c r="C71">
-        <v>-0.1809177029229954</v>
+        <v>0.2280908909167824</v>
       </c>
       <c r="D71">
-        <v>-0.156899129354473</v>
+        <v>0.007212650609451138</v>
       </c>
       <c r="E71">
-        <v>0.01721656019961705</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02504088009812247</v>
+      </c>
+      <c r="F71">
+        <v>0.01041487327483308</v>
+      </c>
+      <c r="G71">
+        <v>-0.03239117374404332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.00303292842578039</v>
+        <v>-0.08095306448350131</v>
       </c>
       <c r="C72">
-        <v>-0.04354257879661768</v>
+        <v>-0.07390749459799244</v>
       </c>
       <c r="D72">
-        <v>0.1393665314420009</v>
+        <v>0.008594656123796675</v>
       </c>
       <c r="E72">
-        <v>-0.03674594216267941</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01448629548815016</v>
+      </c>
+      <c r="F72">
+        <v>-0.03714495649743411</v>
+      </c>
+      <c r="G72">
+        <v>-0.00848864506242105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04394445592102073</v>
+        <v>-0.3943231490532682</v>
       </c>
       <c r="C73">
-        <v>-0.1935877954899293</v>
+        <v>-0.1080678488827444</v>
       </c>
       <c r="D73">
-        <v>0.146053514858448</v>
+        <v>-0.01457330547425338</v>
       </c>
       <c r="E73">
-        <v>-0.1177966753840066</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.02070967958437038</v>
+      </c>
+      <c r="F73">
+        <v>-0.5489219697148091</v>
+      </c>
+      <c r="G73">
+        <v>0.1339555903005511</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001356283497608614</v>
+        <v>-0.1158422836278261</v>
       </c>
       <c r="C74">
-        <v>-0.09070281072774715</v>
+        <v>-0.1205023472174718</v>
       </c>
       <c r="D74">
-        <v>0.1365644311940491</v>
+        <v>0.01021991800549929</v>
       </c>
       <c r="E74">
-        <v>-0.02500581721869794</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0216460932808912</v>
+      </c>
+      <c r="F74">
+        <v>0.08464846032919536</v>
+      </c>
+      <c r="G74">
+        <v>-0.03093287746208727</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.001006705314939127</v>
+        <v>-0.2574096713311319</v>
       </c>
       <c r="C75">
-        <v>-0.2199898127013058</v>
+        <v>-0.1571694123694279</v>
       </c>
       <c r="D75">
-        <v>0.2335706995534014</v>
+        <v>0.03127547768945449</v>
       </c>
       <c r="E75">
-        <v>-0.05298522578346882</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.0554380927399352</v>
+      </c>
+      <c r="F75">
+        <v>0.2123600710147246</v>
+      </c>
+      <c r="G75">
+        <v>0.04496292083317491</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005326105539215384</v>
+        <v>-0.1334292251753416</v>
       </c>
       <c r="C76">
-        <v>-0.1571831514774959</v>
+        <v>-0.1273223136178171</v>
       </c>
       <c r="D76">
-        <v>0.2165645926695428</v>
+        <v>0.02135674941089079</v>
       </c>
       <c r="E76">
-        <v>-0.01598446572116848</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.05225174714436778</v>
+      </c>
+      <c r="F76">
+        <v>0.1435546701601162</v>
+      </c>
+      <c r="G76">
+        <v>-0.01172758700988668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01169497777589496</v>
+        <v>-0.06199439612192449</v>
       </c>
       <c r="C77">
-        <v>-0.01333410640360402</v>
+        <v>-0.0656704782929827</v>
       </c>
       <c r="D77">
-        <v>0.06663292580361091</v>
+        <v>-0.0129784642151124</v>
       </c>
       <c r="E77">
-        <v>-0.0104949340690017</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04545728737341188</v>
+      </c>
+      <c r="F77">
+        <v>-0.01960238462111035</v>
+      </c>
+      <c r="G77">
+        <v>-0.05313454286864781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004144460262216861</v>
+        <v>-0.0398040543853808</v>
       </c>
       <c r="C78">
-        <v>-0.01380834292765788</v>
+        <v>-0.05126648978069998</v>
       </c>
       <c r="D78">
-        <v>0.0657897253779999</v>
+        <v>-0.00585466156973509</v>
       </c>
       <c r="E78">
-        <v>-0.007972323882794442</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01943021265488288</v>
+      </c>
+      <c r="F78">
+        <v>-0.04428089435631035</v>
+      </c>
+      <c r="G78">
+        <v>-0.03636713605118967</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01440089770429219</v>
+        <v>-0.05700097680110837</v>
       </c>
       <c r="C80">
-        <v>-0.1451535031753266</v>
+        <v>-0.06768358225342656</v>
       </c>
       <c r="D80">
-        <v>0.2533646434998662</v>
+        <v>-0.01273200685233919</v>
       </c>
       <c r="E80">
-        <v>0.8906899106967352</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04336488071683135</v>
+      </c>
+      <c r="F80">
+        <v>-0.04110038704442565</v>
+      </c>
+      <c r="G80">
+        <v>-0.9107369940340586</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.001666819369832689</v>
+        <v>-0.1449753129751481</v>
       </c>
       <c r="C81">
-        <v>-0.1393527181355755</v>
+        <v>-0.09643539219156531</v>
       </c>
       <c r="D81">
-        <v>0.1537713901503089</v>
+        <v>0.01591118321470075</v>
       </c>
       <c r="E81">
-        <v>-0.02586677559548363</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.0311772731611815</v>
+      </c>
+      <c r="F81">
+        <v>0.1366380455314059</v>
+      </c>
+      <c r="G81">
+        <v>-0.01061258032924364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05319017036083942</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03975050076053903</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002753980480270602</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.02117868265972249</v>
+      </c>
+      <c r="F82">
+        <v>0.009762578891699156</v>
+      </c>
+      <c r="G82">
+        <v>0.006192782430618299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006552873511292752</v>
+        <v>-0.02825576054186524</v>
       </c>
       <c r="C83">
-        <v>-0.02979049856552958</v>
+        <v>-0.02100662668489559</v>
       </c>
       <c r="D83">
-        <v>0.02347981790552548</v>
+        <v>-0.005071800370318727</v>
       </c>
       <c r="E83">
-        <v>-0.008270141799464671</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02362687539760202</v>
+      </c>
+      <c r="F83">
+        <v>-0.01926796296948668</v>
+      </c>
+      <c r="G83">
+        <v>-0.02281934011042813</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.008970883529823316</v>
+        <v>-0.2313107498237209</v>
       </c>
       <c r="C85">
-        <v>-0.1698991199440867</v>
+        <v>-0.1550161598779024</v>
       </c>
       <c r="D85">
-        <v>0.2457217239877099</v>
+        <v>0.01949464032350459</v>
       </c>
       <c r="E85">
-        <v>-0.05739516572598791</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1037532225741743</v>
+      </c>
+      <c r="F85">
+        <v>0.1887062538370392</v>
+      </c>
+      <c r="G85">
+        <v>0.06469510072060498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006403000353424863</v>
+        <v>-0.01183334373934542</v>
       </c>
       <c r="C86">
-        <v>-0.02261566499807517</v>
+        <v>-0.01518977748646159</v>
       </c>
       <c r="D86">
-        <v>0.006340623008811688</v>
+        <v>-0.009617812061090287</v>
       </c>
       <c r="E86">
-        <v>-0.02080422290539706</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02798878716228959</v>
+      </c>
+      <c r="F86">
+        <v>-0.03676966323353947</v>
+      </c>
+      <c r="G86">
+        <v>-0.05318535668326457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007247490991895917</v>
+        <v>-0.02054782258108799</v>
       </c>
       <c r="C87">
-        <v>-0.01118909646553</v>
+        <v>-0.02624933501334298</v>
       </c>
       <c r="D87">
-        <v>0.03963785599653152</v>
+        <v>-0.01079814954780787</v>
       </c>
       <c r="E87">
-        <v>-0.009206690985270617</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08502844543280824</v>
+      </c>
+      <c r="F87">
+        <v>-0.03453980959853875</v>
+      </c>
+      <c r="G87">
+        <v>-0.04695185701727699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02655693966336899</v>
+        <v>-0.09022509784548738</v>
       </c>
       <c r="C88">
-        <v>-0.04716581950189776</v>
+        <v>-0.06257375252969558</v>
       </c>
       <c r="D88">
-        <v>0.03015770464425483</v>
+        <v>-0.02197382819738666</v>
       </c>
       <c r="E88">
-        <v>-0.008526754345901015</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01506323541440698</v>
+      </c>
+      <c r="F88">
+        <v>0.0118450947707852</v>
+      </c>
+      <c r="G88">
+        <v>-0.0226756441728927</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05692618656857739</v>
+        <v>-0.2314753126717687</v>
       </c>
       <c r="C89">
-        <v>-0.3515784179606117</v>
+        <v>0.3648324985106951</v>
       </c>
       <c r="D89">
-        <v>-0.2690092459578757</v>
+        <v>0.007743073367721418</v>
       </c>
       <c r="E89">
-        <v>0.005693211661593942</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01737092004653343</v>
+      </c>
+      <c r="F89">
+        <v>0.03324241257614662</v>
+      </c>
+      <c r="G89">
+        <v>-0.03193499111256583</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04249848900930593</v>
+        <v>-0.1983792219414531</v>
       </c>
       <c r="C90">
-        <v>-0.2585871190277415</v>
+        <v>0.3312895410319425</v>
       </c>
       <c r="D90">
-        <v>-0.2503907389155593</v>
+        <v>0.01087848887959107</v>
       </c>
       <c r="E90">
-        <v>0.002903735807532382</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.006613379166967097</v>
+      </c>
+      <c r="F90">
+        <v>0.05051069052204962</v>
+      </c>
+      <c r="G90">
+        <v>-0.0008927429271797859</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.00172946460432553</v>
+        <v>-0.2033999352884899</v>
       </c>
       <c r="C91">
-        <v>-0.1805014701414422</v>
+        <v>-0.1425978609680387</v>
       </c>
       <c r="D91">
-        <v>0.223829188825866</v>
+        <v>0.02498444930016417</v>
       </c>
       <c r="E91">
-        <v>-0.03715351748171741</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07400420658174942</v>
+      </c>
+      <c r="F91">
+        <v>0.1850243669855877</v>
+      </c>
+      <c r="G91">
+        <v>0.002938754998562432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.009200933726221338</v>
+        <v>-0.2078517101038703</v>
       </c>
       <c r="C92">
-        <v>-0.3305102982730979</v>
+        <v>0.2565458671920112</v>
       </c>
       <c r="D92">
-        <v>-0.1231961857584507</v>
+        <v>0.04911487729596131</v>
       </c>
       <c r="E92">
-        <v>-0.003010000958072074</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003016114457206748</v>
+      </c>
+      <c r="F92">
+        <v>0.1153620322194369</v>
+      </c>
+      <c r="G92">
+        <v>-0.06439272171870643</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03972970539171614</v>
+        <v>-0.2263049196933188</v>
       </c>
       <c r="C93">
-        <v>-0.2961547245823059</v>
+        <v>0.3327284449616588</v>
       </c>
       <c r="D93">
-        <v>-0.2517446627975956</v>
+        <v>0.01851172591003207</v>
       </c>
       <c r="E93">
-        <v>-0.02023443190844009</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.006428755814734319</v>
+      </c>
+      <c r="F93">
+        <v>0.03100573619186898</v>
+      </c>
+      <c r="G93">
+        <v>0.001313000555065201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01933089120572799</v>
+        <v>-0.2830550292618574</v>
       </c>
       <c r="C94">
-        <v>-0.2249284470907791</v>
+        <v>-0.1728410853282301</v>
       </c>
       <c r="D94">
-        <v>0.215709406029034</v>
+        <v>0.01348583995790826</v>
       </c>
       <c r="E94">
-        <v>-0.08245535554498862</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.08886505041219282</v>
+      </c>
+      <c r="F94">
+        <v>0.4237300797336805</v>
+      </c>
+      <c r="G94">
+        <v>0.1350258333874107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006281477322864587</v>
+        <v>-0.0878547551508749</v>
       </c>
       <c r="C95">
-        <v>-0.04769066847065168</v>
+        <v>-0.07814900036530782</v>
       </c>
       <c r="D95">
-        <v>0.07463426643139513</v>
+        <v>0.007562514017991725</v>
       </c>
       <c r="E95">
-        <v>-0.1221107091559032</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06247050363508188</v>
+      </c>
+      <c r="F95">
+        <v>-0.1992294221473483</v>
+      </c>
+      <c r="G95">
+        <v>0.06641732197000792</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.004717832400844887</v>
+        <v>-0.2060562993887051</v>
       </c>
       <c r="C98">
-        <v>-0.1632072272526992</v>
+        <v>-0.04705190451446144</v>
       </c>
       <c r="D98">
-        <v>0.1065971570358021</v>
+        <v>0.01621727185680221</v>
       </c>
       <c r="E98">
-        <v>-0.0731131080606735</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.04328489275338202</v>
+      </c>
+      <c r="F98">
+        <v>-0.2602675984908181</v>
+      </c>
+      <c r="G98">
+        <v>0.03131876440650289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007154374507317107</v>
+        <v>-0.01344733921378916</v>
       </c>
       <c r="C101">
-        <v>-0.01777546788496882</v>
+        <v>-0.02171825395384935</v>
       </c>
       <c r="D101">
-        <v>0.01585443922667439</v>
+        <v>-0.007219080678210954</v>
       </c>
       <c r="E101">
-        <v>0.005041733872267312</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.008542847217686904</v>
+      </c>
+      <c r="F101">
+        <v>0.01203098125289208</v>
+      </c>
+      <c r="G101">
+        <v>-0.03080081414450901</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01369620480058334</v>
+        <v>-0.1217023818740382</v>
       </c>
       <c r="C102">
-        <v>-0.1075580452463968</v>
+        <v>-0.08508181202404042</v>
       </c>
       <c r="D102">
-        <v>0.1154795036642492</v>
+        <v>-0.0003237867678662602</v>
       </c>
       <c r="E102">
-        <v>-0.02724630155607869</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03621895251100105</v>
+      </c>
+      <c r="F102">
+        <v>0.0539455806252777</v>
+      </c>
+      <c r="G102">
+        <v>0.00972578207809998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001847384278329647</v>
+        <v>-0.004520560276250747</v>
       </c>
       <c r="C103">
-        <v>-0.01683570827510724</v>
+        <v>-0.005225076589384849</v>
       </c>
       <c r="D103">
-        <v>0.02899751675157346</v>
+        <v>-0.0004556614820017658</v>
       </c>
       <c r="E103">
-        <v>0.01059871675085699</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001923352099094669</v>
+      </c>
+      <c r="F103">
+        <v>0.009074406104361559</v>
+      </c>
+      <c r="G103">
+        <v>-0.01768101205999437</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9847077810479696</v>
+        <v>-0.03481183649234613</v>
       </c>
       <c r="C104">
-        <v>0.1084627333888062</v>
+        <v>0.04064260991297321</v>
       </c>
       <c r="D104">
-        <v>0.002675197263306905</v>
+        <v>-0.9870587696945773</v>
       </c>
       <c r="E104">
-        <v>0.02680119957629528</v>
+        <v>-0.03634156557440392</v>
+      </c>
+      <c r="F104">
+        <v>0.04499055015353816</v>
+      </c>
+      <c r="G104">
+        <v>0.008346284768592671</v>
       </c>
     </row>
   </sheetData>
